--- a/Ex1.xlsx
+++ b/Ex1.xlsx
@@ -444,6 +444,11 @@
       </c>
     </row>
     <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2019-08-23</t>
+        </is>
+      </c>
       <c r="B6" t="inlineStr">
         <is>
           <t>Person_1</t>
@@ -492,6 +497,11 @@
       <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2019-08-24</t>
+        </is>
+      </c>
       <c r="B7" t="inlineStr">
         <is>
           <t>Person_4</t>
@@ -540,6 +550,11 @@
       <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2019-08-25</t>
+        </is>
+      </c>
       <c r="B8" t="inlineStr">
         <is>
           <t>Person_6</t>
@@ -588,6 +603,11 @@
       <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2019-08-26</t>
+        </is>
+      </c>
       <c r="B9" t="inlineStr">
         <is>
           <t>Person_3</t>
@@ -636,6 +656,11 @@
       <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2019-08-27</t>
+        </is>
+      </c>
       <c r="B10" t="inlineStr">
         <is>
           <t>Person_5</t>
@@ -684,6 +709,11 @@
       <c r="K10" t="inlineStr"/>
     </row>
     <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2019-08-28</t>
+        </is>
+      </c>
       <c r="B11" t="inlineStr">
         <is>
           <t>Person_2</t>
@@ -732,6 +762,11 @@
       <c r="K11" t="inlineStr"/>
     </row>
     <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2019-08-29</t>
+        </is>
+      </c>
       <c r="B12" t="inlineStr">
         <is>
           <t>Person_4</t>
@@ -780,6 +815,11 @@
       <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2019-08-30</t>
+        </is>
+      </c>
       <c r="B13" t="inlineStr">
         <is>
           <t>Person_1</t>
@@ -828,6 +868,11 @@
       <c r="K13" t="inlineStr"/>
     </row>
     <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>2019-08-31</t>
+        </is>
+      </c>
       <c r="B14" t="inlineStr">
         <is>
           <t>Person_3</t>
@@ -876,6 +921,11 @@
       <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>2019-09-01</t>
+        </is>
+      </c>
       <c r="B15" t="inlineStr">
         <is>
           <t>Person_6</t>
@@ -924,6 +974,11 @@
       <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>2019-09-02</t>
+        </is>
+      </c>
       <c r="B16" t="inlineStr">
         <is>
           <t>Person_2</t>
@@ -972,6 +1027,11 @@
       <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>2019-09-03</t>
+        </is>
+      </c>
       <c r="B17" t="inlineStr">
         <is>
           <t>Person_5</t>
@@ -1020,6 +1080,11 @@
       <c r="K17" t="inlineStr"/>
     </row>
     <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>2019-09-04</t>
+        </is>
+      </c>
       <c r="B18" t="inlineStr">
         <is>
           <t>Person_1</t>
@@ -1068,6 +1133,11 @@
       <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>2019-09-05</t>
+        </is>
+      </c>
       <c r="B19" t="inlineStr">
         <is>
           <t>Person_4</t>
@@ -1116,6 +1186,11 @@
       <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>2019-09-06</t>
+        </is>
+      </c>
       <c r="B20" t="inlineStr">
         <is>
           <t>Person_6</t>
@@ -1164,6 +1239,11 @@
       <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>2019-09-07</t>
+        </is>
+      </c>
       <c r="B21" t="inlineStr">
         <is>
           <t>Person_3</t>
@@ -1212,6 +1292,11 @@
       <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>2019-09-08</t>
+        </is>
+      </c>
       <c r="B22" t="inlineStr">
         <is>
           <t>Person_5</t>
@@ -1260,6 +1345,11 @@
       <c r="K22" t="inlineStr"/>
     </row>
     <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>2019-09-09</t>
+        </is>
+      </c>
       <c r="B23" t="inlineStr">
         <is>
           <t>Person_2</t>
@@ -1308,6 +1398,11 @@
       <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>2019-09-10</t>
+        </is>
+      </c>
       <c r="B24" t="inlineStr">
         <is>
           <t>Person_4</t>
@@ -1356,6 +1451,11 @@
       <c r="K24" t="inlineStr"/>
     </row>
     <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>2019-09-11</t>
+        </is>
+      </c>
       <c r="B25" t="inlineStr">
         <is>
           <t>Person_1</t>
@@ -1404,6 +1504,11 @@
       <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>2019-09-12</t>
+        </is>
+      </c>
       <c r="B26" t="inlineStr">
         <is>
           <t>Person_3</t>
@@ -1452,6 +1557,11 @@
       <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>2019-09-13</t>
+        </is>
+      </c>
       <c r="B27" t="inlineStr">
         <is>
           <t>Person_6</t>
@@ -1500,6 +1610,11 @@
       <c r="K27" t="inlineStr"/>
     </row>
     <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>2019-09-14</t>
+        </is>
+      </c>
       <c r="B28" t="inlineStr">
         <is>
           <t>Person_2</t>
@@ -1548,6 +1663,11 @@
       <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>2019-09-15</t>
+        </is>
+      </c>
       <c r="B29" t="inlineStr">
         <is>
           <t>Person_5</t>
@@ -1596,6 +1716,11 @@
       <c r="K29" t="inlineStr"/>
     </row>
     <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>2019-09-16</t>
+        </is>
+      </c>
       <c r="B30" t="inlineStr">
         <is>
           <t>Person_1</t>
@@ -1644,6 +1769,11 @@
       <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>2019-09-17</t>
+        </is>
+      </c>
       <c r="B31" t="inlineStr">
         <is>
           <t>Person_4</t>
@@ -1692,6 +1822,11 @@
       <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>2019-09-18</t>
+        </is>
+      </c>
       <c r="B32" t="inlineStr">
         <is>
           <t>Person_6</t>
@@ -1740,6 +1875,11 @@
       <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>2019-09-19</t>
+        </is>
+      </c>
       <c r="B33" t="inlineStr">
         <is>
           <t>Person_3</t>
@@ -1788,6 +1928,11 @@
       <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>2019-09-20</t>
+        </is>
+      </c>
       <c r="B34" t="inlineStr">
         <is>
           <t>Person_5</t>
@@ -1836,6 +1981,11 @@
       <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>2019-09-21</t>
+        </is>
+      </c>
       <c r="B35" t="inlineStr">
         <is>
           <t>Person_2</t>
